--- a/document/excel_upload_자료/TBL_EXP_VALUATION_STOCK.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_VALUATION_STOCK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83A52EC-4D6B-44EB-AFDF-EAF3F9F56DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7177DD45-D15A-4655-9C8E-7E44F4927F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="1740" yWindow="1680" windowWidth="23010" windowHeight="12480" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,27 +77,47 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_EXP_VALUATION_STOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도별1주당 주식가액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도별 주식수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BUYER_ID</t>
-  </si>
-  <si>
-    <t>1/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBL_EXP_VALUATION_STOCK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PRICE_PER_STOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TOTAL_STOCK</t>
-  </si>
-  <si>
-    <t>25FC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,7 +678,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -699,10 +719,10 @@
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>7</v>
@@ -715,36 +735,36 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>14</v>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>2022</v>
@@ -758,7 +778,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>2023</v>
@@ -772,7 +792,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>2026</v>
@@ -786,7 +806,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>2028</v>
@@ -800,7 +820,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>2030</v>
@@ -814,7 +834,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>2033</v>
@@ -828,7 +848,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>2038</v>
@@ -842,7 +862,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>2043</v>
